--- a/train.xlsx
+++ b/train.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulodedra/Downloads/LeetSummarizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A59627-84B1-4041-A99F-40535AD5FAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F225BB6-9629-0747-BC56-C768CB767191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="64">
   <si>
     <t>Given an array of integers nums and an integer target, return indices of the two numbers such that they add up to target.
 You may assume that each input would have exactly one solution, and you may not use the same element twice.
@@ -628,9 +628,6 @@
   </si>
   <si>
     <t>To reorder a singly linked list in the specified pattern, first use the slow and fast pointer technique to find the middle of the list. Reverse the second half of the list. Then, merge the two halves by alternating nodes from each half. This rearranges the nodes in the required order without modifying their values.</t>
-  </si>
-  <si>
-    <t>dhfiuosdhaf</t>
   </si>
 </sst>
 </file>
@@ -1047,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1067,9 +1064,6 @@
       <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="2" spans="1:9" ht="409.6">
       <c r="A2" s="1" t="s">
@@ -1329,7 +1323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="409.6">
+    <row r="11" spans="1:9" ht="323">
       <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
